--- a/dist/document/dest/2020/10/doctors/158.xlsx
+++ b/dist/document/dest/2020/10/doctors/158.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>46000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>45</v>
       </c>
-      <c r="C3" s="1">
-        <v>155250</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>28</v>
       </c>
-      <c r="C4" s="1">
-        <v>35980</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>59400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>45</v>
       </c>
-      <c r="C6" s="1">
-        <v>1138500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>45</v>
       </c>
-      <c r="C8" s="1">
-        <v>170775</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>56</v>
       </c>
-      <c r="C9" s="1">
-        <v>120400</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>28</v>
       </c>
-      <c r="C10" s="1">
-        <v>184800</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
-        <v>99000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
-        <v>103500</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>56</v>
       </c>
-      <c r="C13" s="1">
-        <v>159600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -537,7 +501,7 @@
         <v>369</v>
       </c>
       <c r="C14" s="1">
-        <v>2504205</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/158.xlsx
+++ b/dist/document/dest/2020/10/doctors/158.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,111 +402,59 @@
         <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>92000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Buscopan (v) (hyoscine butylbromide)</v>
+        <v>Sodinir (Cefdinir 300mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>660000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Chè trĩ BTIKG</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B6" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
-      </c>
-      <c r="B7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
-      </c>
-      <c r="B9" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
-      </c>
-      <c r="B10" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Trymo (Bismuth Subcitrate)</v>
-      </c>
-      <c r="B13" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B14" s="1">
-        <v>369</v>
-      </c>
-      <c r="C14" s="1">
-        <v>NaN</v>
+        <v>160</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1355000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>